--- a/LWCF/Data/StateGrantData/LA_LWCFGrants1965-2011.xlsx
+++ b/LWCF/Data/StateGrantData/LA_LWCFGrants1965-2011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherkusmierz/GitHub/DataScienceforConservation/LWCF/Data/StateGrantData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C235A7-E882-124D-AEAF-7AD407474A7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FED09F9-344E-5B43-A764-7C1F6FC1852A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
+    <workbookView xWindow="17100" yWindow="1440" windowWidth="15660" windowHeight="16940" xr2:uid="{B6F33490-F3E6-7A4C-BEE8-2FF3B7EA137C}"/>
   </bookViews>
   <sheets>
     <sheet name="LA" sheetId="1" r:id="rId1"/>
@@ -3642,9 +3642,6 @@
     <t>ST. JOHN PARISH DEV. AUTHORITY</t>
   </si>
   <si>
-    <t>ST. JOHN THE BAP</t>
-  </si>
-  <si>
     <t>NORTH 12TH STREET BALLFIELD</t>
   </si>
   <si>
@@ -5305,6 +5302,9 @@
   </si>
   <si>
     <t>WASHINGTON PARISH RECREATION DISTRICT #1</t>
+  </si>
+  <si>
+    <t>ST. JOHN THE BAPTIST</t>
   </si>
 </sst>
 </file>
@@ -5685,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37359A1-6B2A-3F42-BBBF-673668E46398}">
   <dimension ref="A1:I1535"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14460,7 +14460,7 @@
         <v>1204</v>
       </c>
       <c r="D303" t="s">
-        <v>1205</v>
+        <v>1759</v>
       </c>
       <c r="E303" t="s">
         <v>789</v>
@@ -14483,7 +14483,7 @@
         <v>188</v>
       </c>
       <c r="B304" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C304" t="s">
         <v>997</v>
@@ -14512,10 +14512,10 @@
         <v>268</v>
       </c>
       <c r="B305" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C305" t="s">
         <v>1207</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1208</v>
       </c>
       <c r="D305" t="s">
         <v>950</v>
@@ -14541,10 +14541,10 @@
         <v>272</v>
       </c>
       <c r="B306" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C306" t="s">
         <v>1209</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1210</v>
       </c>
       <c r="D306" t="s">
         <v>950</v>
@@ -14570,7 +14570,7 @@
         <v>275</v>
       </c>
       <c r="B307" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C307" t="s">
         <v>923</v>
@@ -14599,10 +14599,10 @@
         <v>178</v>
       </c>
       <c r="B308" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C308" t="s">
         <v>1212</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1213</v>
       </c>
       <c r="D308" t="s">
         <v>860</v>
@@ -14628,10 +14628,10 @@
         <v>238</v>
       </c>
       <c r="B309" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C309" t="s">
         <v>1214</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1215</v>
       </c>
       <c r="D309" t="s">
         <v>719</v>
@@ -14657,10 +14657,10 @@
         <v>206</v>
       </c>
       <c r="B310" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C310" t="s">
         <v>1216</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1217</v>
       </c>
       <c r="D310" t="s">
         <v>776</v>
@@ -14686,13 +14686,13 @@
         <v>186</v>
       </c>
       <c r="B311" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C311" t="s">
         <v>1218</v>
       </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>1219</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1220</v>
       </c>
       <c r="E311" t="s">
         <v>789</v>
@@ -14715,13 +14715,13 @@
         <v>169</v>
       </c>
       <c r="B312" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C312" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D312" t="s">
         <v>1219</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1220</v>
       </c>
       <c r="E312" t="s">
         <v>789</v>
@@ -14744,13 +14744,13 @@
         <v>243</v>
       </c>
       <c r="B313" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C313" t="s">
         <v>1222</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
         <v>1223</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1224</v>
       </c>
       <c r="E313" t="s">
         <v>789</v>
@@ -14773,7 +14773,7 @@
         <v>355</v>
       </c>
       <c r="B314" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C314" t="s">
         <v>873</v>
@@ -14802,10 +14802,10 @@
         <v>338</v>
       </c>
       <c r="B315" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C315" t="s">
         <v>1226</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1227</v>
       </c>
       <c r="D315" t="s">
         <v>834</v>
@@ -14831,10 +14831,10 @@
         <v>336</v>
       </c>
       <c r="B316" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C316" t="s">
         <v>1228</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1229</v>
       </c>
       <c r="D316" t="s">
         <v>838</v>
@@ -14860,7 +14860,7 @@
         <v>209</v>
       </c>
       <c r="B317" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C317" t="s">
         <v>803</v>
@@ -14889,7 +14889,7 @@
         <v>202</v>
       </c>
       <c r="B318" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C318" t="s">
         <v>803</v>
@@ -14918,7 +14918,7 @@
         <v>279</v>
       </c>
       <c r="B319" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C319" t="s">
         <v>803</v>
@@ -14947,7 +14947,7 @@
         <v>278</v>
       </c>
       <c r="B320" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C320" t="s">
         <v>803</v>
@@ -14976,7 +14976,7 @@
         <v>350</v>
       </c>
       <c r="B321" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C321" t="s">
         <v>803</v>
@@ -15005,7 +15005,7 @@
         <v>339</v>
       </c>
       <c r="B322" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C322" t="s">
         <v>803</v>
@@ -15034,7 +15034,7 @@
         <v>337</v>
       </c>
       <c r="B323" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C323" t="s">
         <v>803</v>
@@ -15092,7 +15092,7 @@
         <v>363</v>
       </c>
       <c r="B325" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C325" t="s">
         <v>803</v>
@@ -15121,7 +15121,7 @@
         <v>373</v>
       </c>
       <c r="B326" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C326" t="s">
         <v>803</v>
@@ -15150,7 +15150,7 @@
         <v>359</v>
       </c>
       <c r="B327" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C327" t="s">
         <v>803</v>
@@ -15179,7 +15179,7 @@
         <v>374</v>
       </c>
       <c r="B328" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C328" t="s">
         <v>1101</v>
@@ -15211,7 +15211,7 @@
         <v>759</v>
       </c>
       <c r="C329" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D329" t="s">
         <v>807</v>
@@ -15240,7 +15240,7 @@
         <v>766</v>
       </c>
       <c r="C330" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D330" t="s">
         <v>807</v>
@@ -15266,10 +15266,10 @@
         <v>235</v>
       </c>
       <c r="B331" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C331" t="s">
         <v>1242</v>
-      </c>
-      <c r="C331" t="s">
-        <v>1243</v>
       </c>
       <c r="D331" t="s">
         <v>281</v>
@@ -15295,7 +15295,7 @@
         <v>358</v>
       </c>
       <c r="B332" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C332" t="s">
         <v>983</v>
@@ -15324,7 +15324,7 @@
         <v>364</v>
       </c>
       <c r="B333" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C333" t="s">
         <v>939</v>
@@ -15353,7 +15353,7 @@
         <v>240</v>
       </c>
       <c r="B334" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C334" t="s">
         <v>1061</v>
@@ -15382,7 +15382,7 @@
         <v>365</v>
       </c>
       <c r="B335" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C335" t="s">
         <v>1061</v>
@@ -15469,7 +15469,7 @@
         <v>230</v>
       </c>
       <c r="B338" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C338" t="s">
         <v>1067</v>
@@ -15498,7 +15498,7 @@
         <v>381</v>
       </c>
       <c r="B339" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C339" t="s">
         <v>848</v>
@@ -15527,7 +15527,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C340" t="s">
         <v>852</v>
@@ -15556,10 +15556,10 @@
         <v>354</v>
       </c>
       <c r="B341" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C341" t="s">
         <v>1251</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1252</v>
       </c>
       <c r="D341" t="s">
         <v>1199</v>
@@ -15585,13 +15585,13 @@
         <v>380</v>
       </c>
       <c r="B342" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C342" t="s">
         <v>1253</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>1254</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1255</v>
       </c>
       <c r="E342" t="s">
         <v>789</v>
@@ -15614,7 +15614,7 @@
         <v>356</v>
       </c>
       <c r="B343" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C343" t="s">
         <v>997</v>
@@ -15643,7 +15643,7 @@
         <v>393</v>
       </c>
       <c r="B344" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C344" t="s">
         <v>788</v>
@@ -15672,10 +15672,10 @@
         <v>384</v>
       </c>
       <c r="B345" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C345" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D345" t="s">
         <v>860</v>
@@ -15701,10 +15701,10 @@
         <v>372</v>
       </c>
       <c r="B346" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C346" t="s">
         <v>1259</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1260</v>
       </c>
       <c r="D346" t="s">
         <v>818</v>
@@ -15730,10 +15730,10 @@
         <v>267</v>
       </c>
       <c r="B347" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C347" t="s">
         <v>1261</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1262</v>
       </c>
       <c r="D347" t="s">
         <v>719</v>
@@ -15759,7 +15759,7 @@
         <v>378</v>
       </c>
       <c r="B348" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C348" t="s">
         <v>1002</v>
@@ -15788,7 +15788,7 @@
         <v>362</v>
       </c>
       <c r="B349" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C349" t="s">
         <v>342</v>
@@ -15817,10 +15817,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C350" t="s">
         <v>1265</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1266</v>
       </c>
       <c r="D350" t="s">
         <v>791</v>
@@ -15846,10 +15846,10 @@
         <v>687</v>
       </c>
       <c r="B351" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C351" t="s">
         <v>1267</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1268</v>
       </c>
       <c r="D351" t="s">
         <v>772</v>
@@ -15875,10 +15875,10 @@
         <v>414</v>
       </c>
       <c r="B352" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C352" t="s">
         <v>1269</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1270</v>
       </c>
       <c r="D352" t="s">
         <v>772</v>
@@ -15904,7 +15904,7 @@
         <v>399</v>
       </c>
       <c r="B353" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C353" t="s">
         <v>803</v>
@@ -15933,7 +15933,7 @@
         <v>411</v>
       </c>
       <c r="B354" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C354" t="s">
         <v>803</v>
@@ -15962,10 +15962,10 @@
         <v>404</v>
       </c>
       <c r="B355" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C355" t="s">
         <v>1273</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1274</v>
       </c>
       <c r="D355" t="s">
         <v>807</v>
@@ -15991,7 +15991,7 @@
         <v>347</v>
       </c>
       <c r="B356" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C356" t="s">
         <v>1037</v>
@@ -16020,7 +16020,7 @@
         <v>405</v>
       </c>
       <c r="B357" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C357" t="s">
         <v>978</v>
@@ -16044,15 +16044,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>360</v>
       </c>
       <c r="B358" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C358" t="s">
         <v>1277</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1278</v>
       </c>
       <c r="D358" t="s">
         <v>910</v>
@@ -16078,7 +16078,7 @@
         <v>390</v>
       </c>
       <c r="B359" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C359" t="s">
         <v>1016</v>
@@ -16107,10 +16107,10 @@
         <v>423</v>
       </c>
       <c r="B360" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C360" t="s">
         <v>1280</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1281</v>
       </c>
       <c r="D360" t="s">
         <v>780</v>
@@ -16136,10 +16136,10 @@
         <v>407</v>
       </c>
       <c r="B361" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C361" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D361" t="s">
         <v>780</v>
@@ -16165,10 +16165,10 @@
         <v>394</v>
       </c>
       <c r="B362" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C362" t="s">
         <v>1283</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1284</v>
       </c>
       <c r="D362" t="s">
         <v>1018</v>
@@ -16194,10 +16194,10 @@
         <v>424</v>
       </c>
       <c r="B363" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C363" t="s">
         <v>1285</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1286</v>
       </c>
       <c r="D363" t="s">
         <v>1018</v>
@@ -16223,10 +16223,10 @@
         <v>397</v>
       </c>
       <c r="B364" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C364" t="s">
         <v>1287</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1288</v>
       </c>
       <c r="D364" t="s">
         <v>720</v>
@@ -16252,10 +16252,10 @@
         <v>385</v>
       </c>
       <c r="B365" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C365" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D365" t="s">
         <v>720</v>
@@ -16281,10 +16281,10 @@
         <v>387</v>
       </c>
       <c r="B366" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C366" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D366" t="s">
         <v>720</v>
@@ -16310,7 +16310,7 @@
         <v>389</v>
       </c>
       <c r="B367" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C367" t="s">
         <v>1202</v>
@@ -16339,7 +16339,7 @@
         <v>344</v>
       </c>
       <c r="B368" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C368" t="s">
         <v>952</v>
@@ -16368,7 +16368,7 @@
         <v>361</v>
       </c>
       <c r="B369" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C369" t="s">
         <v>960</v>
@@ -16397,7 +16397,7 @@
         <v>723</v>
       </c>
       <c r="B370" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C370" t="s">
         <v>864</v>
@@ -16426,7 +16426,7 @@
         <v>686</v>
       </c>
       <c r="B371" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C371" t="s">
         <v>788</v>
@@ -16455,7 +16455,7 @@
         <v>343</v>
       </c>
       <c r="B372" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C372" t="s">
         <v>1135</v>
@@ -16484,10 +16484,10 @@
         <v>425</v>
       </c>
       <c r="B373" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C373" t="s">
         <v>1297</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1298</v>
       </c>
       <c r="D373" t="s">
         <v>823</v>
@@ -16513,7 +16513,7 @@
         <v>428</v>
       </c>
       <c r="B374" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C374" t="s">
         <v>825</v>
@@ -16542,10 +16542,10 @@
         <v>432</v>
       </c>
       <c r="B375" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C375" t="s">
         <v>1300</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1301</v>
       </c>
       <c r="D375" t="s">
         <v>826</v>
@@ -16571,10 +16571,10 @@
         <v>417</v>
       </c>
       <c r="B376" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C376" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D376" t="s">
         <v>826</v>
@@ -16629,10 +16629,10 @@
         <v>412</v>
       </c>
       <c r="B378" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C378" t="s">
         <v>1303</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1304</v>
       </c>
       <c r="D378" t="s">
         <v>793</v>
@@ -16658,10 +16658,10 @@
         <v>444</v>
       </c>
       <c r="B379" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C379" t="s">
         <v>1305</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1306</v>
       </c>
       <c r="D379" t="s">
         <v>793</v>
@@ -16716,7 +16716,7 @@
         <v>352</v>
       </c>
       <c r="B381" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C381" t="s">
         <v>1148</v>
@@ -16745,10 +16745,10 @@
         <v>419</v>
       </c>
       <c r="B382" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C382" t="s">
         <v>1308</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1309</v>
       </c>
       <c r="D382" t="s">
         <v>876</v>
@@ -16774,10 +16774,10 @@
         <v>690</v>
       </c>
       <c r="B383" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C383" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D383" t="s">
         <v>834</v>
@@ -16803,7 +16803,7 @@
         <v>386</v>
       </c>
       <c r="B384" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C384" t="s">
         <v>803</v>
@@ -16832,7 +16832,7 @@
         <v>403</v>
       </c>
       <c r="B385" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C385" t="s">
         <v>803</v>
@@ -16861,7 +16861,7 @@
         <v>422</v>
       </c>
       <c r="B386" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C386" t="s">
         <v>803</v>
@@ -16890,7 +16890,7 @@
         <v>441</v>
       </c>
       <c r="B387" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C387" t="s">
         <v>803</v>
@@ -16919,7 +16919,7 @@
         <v>442</v>
       </c>
       <c r="B388" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C388" t="s">
         <v>803</v>
@@ -16948,10 +16948,10 @@
         <v>688</v>
       </c>
       <c r="B389" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C389" t="s">
         <v>1316</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1317</v>
       </c>
       <c r="D389" t="s">
         <v>807</v>
@@ -16977,7 +16977,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C390" t="s">
         <v>1037</v>
@@ -17006,7 +17006,7 @@
         <v>691</v>
       </c>
       <c r="B391" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C391" t="s">
         <v>1037</v>
@@ -17035,7 +17035,7 @@
         <v>447</v>
       </c>
       <c r="B392" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C392" t="s">
         <v>1054</v>
@@ -17064,7 +17064,7 @@
         <v>251</v>
       </c>
       <c r="B393" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C393" t="s">
         <v>1111</v>
@@ -17093,7 +17093,7 @@
         <v>396</v>
       </c>
       <c r="B394" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C394" t="s">
         <v>843</v>
@@ -17122,7 +17122,7 @@
         <v>427</v>
       </c>
       <c r="B395" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C395" t="s">
         <v>1172</v>
@@ -17151,7 +17151,7 @@
         <v>211</v>
       </c>
       <c r="B396" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C396" t="s">
         <v>1119</v>
@@ -17180,7 +17180,7 @@
         <v>368</v>
       </c>
       <c r="B397" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C397" t="s">
         <v>909</v>
@@ -17209,7 +17209,7 @@
         <v>239</v>
       </c>
       <c r="B398" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C398" t="s">
         <v>1061</v>
@@ -17267,7 +17267,7 @@
         <v>377</v>
       </c>
       <c r="B400" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C400" t="s">
         <v>1061</v>
@@ -17296,7 +17296,7 @@
         <v>406</v>
       </c>
       <c r="B401" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C401" t="s">
         <v>736</v>
@@ -17325,7 +17325,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C402" t="s">
         <v>736</v>
@@ -17354,10 +17354,10 @@
         <v>685</v>
       </c>
       <c r="B403" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C403" t="s">
         <v>1330</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1331</v>
       </c>
       <c r="D403" t="s">
         <v>41</v>
@@ -17383,10 +17383,10 @@
         <v>401</v>
       </c>
       <c r="B404" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C404" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D404" t="s">
         <v>1018</v>
@@ -17412,10 +17412,10 @@
         <v>435</v>
       </c>
       <c r="B405" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C405" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D405" t="s">
         <v>1018</v>
@@ -17441,10 +17441,10 @@
         <v>439</v>
       </c>
       <c r="B406" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C406" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D406" t="s">
         <v>1018</v>
@@ -17470,7 +17470,7 @@
         <v>410</v>
       </c>
       <c r="B407" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C407" t="s">
         <v>849</v>
@@ -17499,13 +17499,13 @@
         <v>420</v>
       </c>
       <c r="B408" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C408" t="s">
         <v>1336</v>
       </c>
-      <c r="C408" t="s">
+      <c r="D408" t="s">
         <v>1337</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1338</v>
       </c>
       <c r="E408" t="s">
         <v>789</v>
@@ -17528,7 +17528,7 @@
         <v>689</v>
       </c>
       <c r="B409" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C409" t="s">
         <v>786</v>
@@ -17557,7 +17557,7 @@
         <v>398</v>
       </c>
       <c r="B410" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C410" t="s">
         <v>920</v>
@@ -17586,10 +17586,10 @@
         <v>353</v>
       </c>
       <c r="B411" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C411" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D411" t="s">
         <v>1199</v>
@@ -17615,10 +17615,10 @@
         <v>395</v>
       </c>
       <c r="B412" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C412" t="s">
         <v>1342</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1343</v>
       </c>
       <c r="D412" t="s">
         <v>1199</v>
@@ -17644,7 +17644,7 @@
         <v>415</v>
       </c>
       <c r="B413" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C413" t="s">
         <v>855</v>
@@ -17673,10 +17673,10 @@
         <v>408</v>
       </c>
       <c r="B414" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C414" t="s">
         <v>1345</v>
-      </c>
-      <c r="C414" t="s">
-        <v>1346</v>
       </c>
       <c r="D414" t="s">
         <v>856</v>
@@ -17702,10 +17702,10 @@
         <v>426</v>
       </c>
       <c r="B415" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C415" t="s">
         <v>1347</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1348</v>
       </c>
       <c r="D415" t="s">
         <v>856</v>
@@ -17731,7 +17731,7 @@
         <v>418</v>
       </c>
       <c r="B416" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C416" t="s">
         <v>997</v>
@@ -17760,7 +17760,7 @@
         <v>436</v>
       </c>
       <c r="B417" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C417" t="s">
         <v>918</v>
@@ -17789,7 +17789,7 @@
         <v>388</v>
       </c>
       <c r="B418" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C418" t="s">
         <v>781</v>
@@ -17818,13 +17818,13 @@
         <v>400</v>
       </c>
       <c r="B419" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C419" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D419" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E419" t="s">
         <v>789</v>
@@ -17847,7 +17847,7 @@
         <v>433</v>
       </c>
       <c r="B420" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C420" t="s">
         <v>923</v>
@@ -17876,10 +17876,10 @@
         <v>431</v>
       </c>
       <c r="B421" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C421" t="s">
         <v>1354</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1355</v>
       </c>
       <c r="D421" t="s">
         <v>889</v>
@@ -17905,7 +17905,7 @@
         <v>684</v>
       </c>
       <c r="B422" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C422" t="s">
         <v>859</v>
@@ -17963,10 +17963,10 @@
         <v>450</v>
       </c>
       <c r="B424" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C424" t="s">
         <v>1357</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1358</v>
       </c>
       <c r="D424" t="s">
         <v>768</v>
@@ -17992,7 +17992,7 @@
         <v>382</v>
       </c>
       <c r="B425" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C425" t="s">
         <v>778</v>
@@ -18021,13 +18021,13 @@
         <v>437</v>
       </c>
       <c r="B426" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C426" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D426" t="s">
         <v>1219</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1220</v>
       </c>
       <c r="E426" t="s">
         <v>789</v>
@@ -18050,7 +18050,7 @@
         <v>458</v>
       </c>
       <c r="B427" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C427" t="s">
         <v>822</v>
@@ -18111,7 +18111,7 @@
         <v>747</v>
       </c>
       <c r="C429" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D429" t="s">
         <v>826</v>
@@ -18137,10 +18137,10 @@
         <v>457</v>
       </c>
       <c r="B430" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C430" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D430" t="s">
         <v>826</v>
@@ -18166,13 +18166,13 @@
         <v>455</v>
       </c>
       <c r="B431" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C431" t="s">
         <v>1363</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
         <v>1364</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1365</v>
       </c>
       <c r="E431" t="s">
         <v>789</v>
@@ -18195,7 +18195,7 @@
         <v>699</v>
       </c>
       <c r="B432" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C432" t="s">
         <v>1143</v>
@@ -18224,7 +18224,7 @@
         <v>456</v>
       </c>
       <c r="B433" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C433" t="s">
         <v>1154</v>
@@ -18253,7 +18253,7 @@
         <v>392</v>
       </c>
       <c r="B434" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C434" t="s">
         <v>803</v>
@@ -18282,7 +18282,7 @@
         <v>446</v>
       </c>
       <c r="B435" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C435" t="s">
         <v>803</v>
@@ -18311,7 +18311,7 @@
         <v>454</v>
       </c>
       <c r="B436" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C436" t="s">
         <v>803</v>
@@ -18340,7 +18340,7 @@
         <v>462</v>
       </c>
       <c r="B437" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C437" t="s">
         <v>803</v>
@@ -18369,7 +18369,7 @@
         <v>461</v>
       </c>
       <c r="B438" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C438" t="s">
         <v>803</v>
@@ -18398,7 +18398,7 @@
         <v>459</v>
       </c>
       <c r="B439" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C439" t="s">
         <v>803</v>
@@ -18427,7 +18427,7 @@
         <v>463</v>
       </c>
       <c r="B440" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C440" t="s">
         <v>803</v>
@@ -18456,10 +18456,10 @@
         <v>451</v>
       </c>
       <c r="B441" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C441" t="s">
         <v>1375</v>
-      </c>
-      <c r="C441" t="s">
-        <v>1376</v>
       </c>
       <c r="D441" t="s">
         <v>807</v>
@@ -18485,7 +18485,7 @@
         <v>466</v>
       </c>
       <c r="B442" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C442" t="s">
         <v>788</v>
@@ -18514,10 +18514,10 @@
         <v>464</v>
       </c>
       <c r="B443" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C443" t="s">
         <v>1378</v>
-      </c>
-      <c r="C443" t="s">
-        <v>1379</v>
       </c>
       <c r="D443" t="s">
         <v>283</v>
@@ -18543,10 +18543,10 @@
         <v>429</v>
       </c>
       <c r="B444" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C444" t="s">
         <v>1380</v>
-      </c>
-      <c r="C444" t="s">
-        <v>1381</v>
       </c>
       <c r="D444" t="s">
         <v>721</v>
@@ -18572,7 +18572,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C445" t="s">
         <v>1037</v>
@@ -18601,13 +18601,13 @@
         <v>416</v>
       </c>
       <c r="B446" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C446" t="s">
         <v>1383</v>
       </c>
-      <c r="C446" t="s">
+      <c r="D446" t="s">
         <v>1384</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1385</v>
       </c>
       <c r="E446" t="s">
         <v>789</v>
@@ -18630,13 +18630,13 @@
         <v>460</v>
       </c>
       <c r="B447" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C447" t="s">
         <v>1386</v>
       </c>
-      <c r="C447" t="s">
-        <v>1387</v>
-      </c>
       <c r="D447" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E447" t="s">
         <v>789</v>
@@ -18659,7 +18659,7 @@
         <v>413</v>
       </c>
       <c r="B448" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C448" t="s">
         <v>843</v>
@@ -18688,7 +18688,7 @@
         <v>700</v>
       </c>
       <c r="B449" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C449" t="s">
         <v>1113</v>
@@ -18717,10 +18717,10 @@
         <v>725</v>
       </c>
       <c r="B450" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C450" t="s">
         <v>1390</v>
-      </c>
-      <c r="C450" t="s">
-        <v>1391</v>
       </c>
       <c r="D450" t="s">
         <v>942</v>
@@ -18746,7 +18746,7 @@
         <v>379</v>
       </c>
       <c r="B451" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C451" t="s">
         <v>1016</v>
@@ -18775,7 +18775,7 @@
         <v>693</v>
       </c>
       <c r="B452" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C452" t="s">
         <v>1016</v>
@@ -18804,10 +18804,10 @@
         <v>697</v>
       </c>
       <c r="B453" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C453" t="s">
         <v>1394</v>
-      </c>
-      <c r="C453" t="s">
-        <v>1395</v>
       </c>
       <c r="D453" t="s">
         <v>720</v>
@@ -18833,7 +18833,7 @@
         <v>692</v>
       </c>
       <c r="B454" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C454" t="s">
         <v>786</v>
@@ -18862,10 +18862,10 @@
         <v>465</v>
       </c>
       <c r="B455" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C455" t="s">
         <v>1397</v>
-      </c>
-      <c r="C455" t="s">
-        <v>1398</v>
       </c>
       <c r="D455" t="s">
         <v>769</v>
@@ -18891,7 +18891,7 @@
         <v>701</v>
       </c>
       <c r="B456" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C456" t="s">
         <v>859</v>
@@ -18920,13 +18920,13 @@
         <v>440</v>
       </c>
       <c r="B457" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C457" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D457" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E457" t="s">
         <v>789</v>
@@ -18949,7 +18949,7 @@
         <v>421</v>
       </c>
       <c r="B458" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="C458" t="s">
         <v>997</v>
@@ -18978,7 +18978,7 @@
         <v>694</v>
       </c>
       <c r="B459" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C459" t="s">
         <v>949</v>
@@ -19007,10 +19007,10 @@
         <v>695</v>
       </c>
       <c r="B460" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C460" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D460" t="s">
         <v>950</v>
@@ -19036,7 +19036,7 @@
         <v>430</v>
       </c>
       <c r="B461" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C461" t="s">
         <v>923</v>
@@ -19065,7 +19065,7 @@
         <v>698</v>
       </c>
       <c r="B462" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C462" t="s">
         <v>923</v>
@@ -19094,7 +19094,7 @@
         <v>452</v>
       </c>
       <c r="B463" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C463" t="s">
         <v>764</v>
@@ -19123,7 +19123,7 @@
         <v>449</v>
       </c>
       <c r="B464" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C464" t="s">
         <v>955</v>
@@ -19152,10 +19152,10 @@
         <v>705</v>
       </c>
       <c r="B465" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C465" t="s">
         <v>1408</v>
-      </c>
-      <c r="C465" t="s">
-        <v>1409</v>
       </c>
       <c r="D465" t="s">
         <v>818</v>
@@ -19181,7 +19181,7 @@
         <v>376</v>
       </c>
       <c r="B466" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C466" t="s">
         <v>960</v>
@@ -19210,7 +19210,7 @@
         <v>409</v>
       </c>
       <c r="B467" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C467" t="s">
         <v>1002</v>
@@ -19239,10 +19239,10 @@
         <v>696</v>
       </c>
       <c r="B468" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C468" t="s">
         <v>1412</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1413</v>
       </c>
       <c r="D468" t="s">
         <v>768</v>
@@ -19268,7 +19268,7 @@
         <v>702</v>
       </c>
       <c r="B469" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C469" t="s">
         <v>788</v>
@@ -19297,13 +19297,13 @@
         <v>434</v>
       </c>
       <c r="B470" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C470" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D470" t="s">
         <v>1223</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1224</v>
       </c>
       <c r="E470" t="s">
         <v>789</v>
@@ -19326,10 +19326,10 @@
         <v>482</v>
       </c>
       <c r="B471" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C471" t="s">
         <v>1416</v>
-      </c>
-      <c r="C471" t="s">
-        <v>1417</v>
       </c>
       <c r="D471" t="s">
         <v>823</v>
@@ -19355,10 +19355,10 @@
         <v>489</v>
       </c>
       <c r="B472" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C472" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D472" t="s">
         <v>826</v>
@@ -19384,10 +19384,10 @@
         <v>490</v>
       </c>
       <c r="B473" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C473" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D473" t="s">
         <v>826</v>
@@ -19413,10 +19413,10 @@
         <v>468</v>
       </c>
       <c r="B474" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C474" t="s">
         <v>1420</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1421</v>
       </c>
       <c r="D474" t="s">
         <v>799</v>
@@ -19442,7 +19442,7 @@
         <v>478</v>
       </c>
       <c r="B475" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C475" t="s">
         <v>831</v>
@@ -19471,7 +19471,7 @@
         <v>704</v>
       </c>
       <c r="B476" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C476" t="s">
         <v>803</v>
@@ -19500,7 +19500,7 @@
         <v>480</v>
       </c>
       <c r="B477" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C477" t="s">
         <v>803</v>
@@ -19529,10 +19529,10 @@
         <v>488</v>
       </c>
       <c r="B478" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C478" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D478" t="s">
         <v>807</v>
@@ -19558,7 +19558,7 @@
         <v>467</v>
       </c>
       <c r="B479" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C479" t="s">
         <v>976</v>
@@ -19587,7 +19587,7 @@
         <v>481</v>
       </c>
       <c r="B480" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C480" t="s">
         <v>978</v>
@@ -19616,7 +19616,7 @@
         <v>249</v>
       </c>
       <c r="B481" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C481" t="s">
         <v>1111</v>
@@ -19645,10 +19645,10 @@
         <v>487</v>
       </c>
       <c r="B482" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C482" t="s">
         <v>1429</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1430</v>
       </c>
       <c r="D482" t="s">
         <v>281</v>
@@ -19674,13 +19674,13 @@
         <v>477</v>
       </c>
       <c r="B483" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C483" t="s">
         <v>1431</v>
       </c>
-      <c r="C483" t="s">
+      <c r="D483" t="s">
         <v>1432</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1433</v>
       </c>
       <c r="E483" t="s">
         <v>789</v>
@@ -19703,10 +19703,10 @@
         <v>471</v>
       </c>
       <c r="B484" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C484" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D484" t="s">
         <v>950</v>
@@ -19732,7 +19732,7 @@
         <v>474</v>
       </c>
       <c r="B485" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C485" t="s">
         <v>923</v>
@@ -19761,10 +19761,10 @@
         <v>470</v>
       </c>
       <c r="B486" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C486" t="s">
         <v>1436</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1437</v>
       </c>
       <c r="D486" t="s">
         <v>860</v>
@@ -19790,10 +19790,10 @@
         <v>473</v>
       </c>
       <c r="B487" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C487" t="s">
         <v>1438</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1439</v>
       </c>
       <c r="D487" t="s">
         <v>818</v>
@@ -19819,7 +19819,7 @@
         <v>703</v>
       </c>
       <c r="B488" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C488" t="s">
         <v>778</v>
@@ -19848,10 +19848,10 @@
         <v>472</v>
       </c>
       <c r="B489" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C489" t="s">
         <v>1441</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1442</v>
       </c>
       <c r="D489" t="s">
         <v>776</v>
@@ -19877,13 +19877,13 @@
         <v>479</v>
       </c>
       <c r="B490" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C490" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D490" t="s">
         <v>1219</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1220</v>
       </c>
       <c r="E490" t="s">
         <v>789</v>
@@ -19906,10 +19906,10 @@
         <v>485</v>
       </c>
       <c r="B491" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C491" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D491" t="s">
         <v>823</v>
@@ -19935,10 +19935,10 @@
         <v>484</v>
       </c>
       <c r="B492" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C492" t="s">
         <v>1445</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1446</v>
       </c>
       <c r="D492" t="s">
         <v>799</v>
@@ -19964,7 +19964,7 @@
         <v>483</v>
       </c>
       <c r="B493" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C493" t="s">
         <v>1065</v>
@@ -19993,10 +19993,10 @@
         <v>486</v>
       </c>
       <c r="B494" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C494" t="s">
         <v>1448</v>
-      </c>
-      <c r="C494" t="s">
-        <v>1449</v>
       </c>
       <c r="D494" t="s">
         <v>722</v>
@@ -20051,7 +20051,7 @@
         <v>497</v>
       </c>
       <c r="B496" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C496" t="s">
         <v>990</v>
@@ -20080,7 +20080,7 @@
         <v>383</v>
       </c>
       <c r="B497" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C497" t="s">
         <v>852</v>
@@ -20109,10 +20109,10 @@
         <v>476</v>
       </c>
       <c r="B498" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C498" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D498" t="s">
         <v>856</v>
@@ -20138,7 +20138,7 @@
         <v>491</v>
       </c>
       <c r="B499" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C499" t="s">
         <v>855</v>
@@ -20167,7 +20167,7 @@
         <v>494</v>
       </c>
       <c r="B500" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C500" t="s">
         <v>955</v>
@@ -20196,7 +20196,7 @@
         <v>492</v>
       </c>
       <c r="B501" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C501" t="s">
         <v>864</v>
@@ -20225,7 +20225,7 @@
         <v>499</v>
       </c>
       <c r="B502" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C502" t="s">
         <v>1033</v>
@@ -20254,10 +20254,10 @@
         <v>498</v>
       </c>
       <c r="B503" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C503" t="s">
         <v>1457</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1458</v>
       </c>
       <c r="D503" t="s">
         <v>351</v>
@@ -20283,13 +20283,13 @@
         <v>707</v>
       </c>
       <c r="B504" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C504" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D504" t="s">
         <v>1219</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1220</v>
       </c>
       <c r="E504" t="s">
         <v>789</v>
@@ -20312,7 +20312,7 @@
         <v>496</v>
       </c>
       <c r="B505" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C505" t="s">
         <v>752</v>
@@ -20341,10 +20341,10 @@
         <v>708</v>
       </c>
       <c r="B506" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C506" t="s">
         <v>1461</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1462</v>
       </c>
       <c r="D506" t="s">
         <v>799</v>
@@ -20370,7 +20370,7 @@
         <v>504</v>
       </c>
       <c r="B507" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C507" t="s">
         <v>1148</v>
@@ -20399,10 +20399,10 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C508" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="D508" t="s">
         <v>799</v>
@@ -20428,10 +20428,10 @@
         <v>501</v>
       </c>
       <c r="B509" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C509" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D509" t="s">
         <v>876</v>
@@ -20457,10 +20457,10 @@
         <v>469</v>
       </c>
       <c r="B510" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C510" t="s">
         <v>1466</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1467</v>
       </c>
       <c r="D510" t="s">
         <v>834</v>
@@ -20486,7 +20486,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C511" t="s">
         <v>803</v>
@@ -20515,7 +20515,7 @@
         <v>712</v>
       </c>
       <c r="B512" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C512" t="s">
         <v>1037</v>
@@ -20544,7 +20544,7 @@
         <v>714</v>
       </c>
       <c r="B513" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C513" t="s">
         <v>978</v>
@@ -20576,10 +20576,10 @@
         <v>787</v>
       </c>
       <c r="C514" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D514" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E514" t="s">
         <v>789</v>
@@ -20602,13 +20602,13 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C515" t="s">
         <v>1471</v>
       </c>
-      <c r="C515" t="s">
-        <v>1472</v>
-      </c>
       <c r="D515" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E515" t="s">
         <v>789</v>
@@ -20631,10 +20631,10 @@
         <v>371</v>
       </c>
       <c r="B516" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C516" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D516" t="s">
         <v>281</v>
@@ -20660,7 +20660,7 @@
         <v>493</v>
       </c>
       <c r="B517" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C517" t="s">
         <v>843</v>
@@ -20689,7 +20689,7 @@
         <v>710</v>
       </c>
       <c r="B518" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C518" t="s">
         <v>1175</v>
@@ -20718,7 +20718,7 @@
         <v>512</v>
       </c>
       <c r="B519" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C519" t="s">
         <v>1178</v>
@@ -20747,7 +20747,7 @@
         <v>511</v>
       </c>
       <c r="B520" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C520" t="s">
         <v>1061</v>
@@ -20776,7 +20776,7 @@
         <v>715</v>
       </c>
       <c r="B521" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C521" t="s">
         <v>736</v>
@@ -20805,7 +20805,7 @@
         <v>515</v>
       </c>
       <c r="B522" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C522" t="s">
         <v>1016</v>
@@ -20834,7 +20834,7 @@
         <v>502</v>
       </c>
       <c r="B523" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C523" t="s">
         <v>852</v>
@@ -20863,7 +20863,7 @@
         <v>709</v>
       </c>
       <c r="B524" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C524" t="s">
         <v>948</v>
@@ -20892,7 +20892,7 @@
         <v>506</v>
       </c>
       <c r="B525" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C525" t="s">
         <v>788</v>
@@ -20921,10 +20921,10 @@
         <v>713</v>
       </c>
       <c r="B526" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C526" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D526" t="s">
         <v>856</v>
@@ -20950,10 +20950,10 @@
         <v>711</v>
       </c>
       <c r="B527" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C527" t="s">
         <v>1484</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1485</v>
       </c>
       <c r="D527" t="s">
         <v>818</v>
@@ -20979,13 +20979,13 @@
         <v>508</v>
       </c>
       <c r="B528" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C528" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D528" t="s">
         <v>1219</v>
-      </c>
-      <c r="D528" t="s">
-        <v>1220</v>
       </c>
       <c r="E528" t="s">
         <v>789</v>
@@ -21008,7 +21008,7 @@
         <v>505</v>
       </c>
       <c r="B529" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C529" t="s">
         <v>849</v>
@@ -21037,7 +21037,7 @@
         <v>525</v>
       </c>
       <c r="B530" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C530" t="s">
         <v>1016</v>
@@ -21066,7 +21066,7 @@
         <v>514</v>
       </c>
       <c r="B531" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C531" t="s">
         <v>788</v>
@@ -21095,7 +21095,7 @@
         <v>510</v>
       </c>
       <c r="B532" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C532" t="s">
         <v>849</v>
@@ -21124,7 +21124,7 @@
         <v>518</v>
       </c>
       <c r="B533" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C533" t="s">
         <v>948</v>
@@ -21153,7 +21153,7 @@
         <v>517</v>
       </c>
       <c r="B534" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C534" t="s">
         <v>752</v>
@@ -21185,7 +21185,7 @@
         <v>749</v>
       </c>
       <c r="C535" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D535" t="s">
         <v>826</v>
@@ -21211,7 +21211,7 @@
         <v>527</v>
       </c>
       <c r="B536" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C536" t="s">
         <v>904</v>
@@ -21240,7 +21240,7 @@
         <v>519</v>
       </c>
       <c r="B537" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C537" t="s">
         <v>803</v>
@@ -21269,13 +21269,13 @@
         <v>516</v>
       </c>
       <c r="B538" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C538" t="s">
         <v>1495</v>
       </c>
-      <c r="C538" t="s">
-        <v>1496</v>
-      </c>
       <c r="D538" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E538" t="s">
         <v>789</v>
@@ -21298,13 +21298,13 @@
         <v>520</v>
       </c>
       <c r="B539" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C539" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D539" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E539" t="s">
         <v>789</v>
@@ -21327,7 +21327,7 @@
         <v>522</v>
       </c>
       <c r="B540" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C540" t="s">
         <v>843</v>
@@ -21356,7 +21356,7 @@
         <v>533</v>
       </c>
       <c r="B541" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C541" t="s">
         <v>763</v>
@@ -21385,7 +21385,7 @@
         <v>500</v>
       </c>
       <c r="B542" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C542" t="s">
         <v>849</v>
@@ -21414,7 +21414,7 @@
         <v>526</v>
       </c>
       <c r="B543" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="C543" t="s">
         <v>852</v>
@@ -21443,7 +21443,7 @@
         <v>717</v>
       </c>
       <c r="B544" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="C544" t="s">
         <v>918</v>
@@ -21472,7 +21472,7 @@
         <v>521</v>
       </c>
       <c r="B545" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C545" t="s">
         <v>859</v>
@@ -21501,7 +21501,7 @@
         <v>716</v>
       </c>
       <c r="B546" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C546" t="s">
         <v>955</v>
@@ -21530,13 +21530,13 @@
         <v>528</v>
       </c>
       <c r="B547" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C547" t="s">
         <v>1505</v>
       </c>
-      <c r="C547" t="s">
+      <c r="D547" t="s">
         <v>1506</v>
-      </c>
-      <c r="D547" t="s">
-        <v>1507</v>
       </c>
       <c r="E547" t="s">
         <v>789</v>
@@ -21559,10 +21559,10 @@
         <v>542</v>
       </c>
       <c r="B548" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C548" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D548" t="s">
         <v>826</v>
@@ -21588,7 +21588,7 @@
         <v>531</v>
       </c>
       <c r="B549" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C549" t="s">
         <v>873</v>
@@ -21617,7 +21617,7 @@
         <v>523</v>
       </c>
       <c r="B550" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C550" t="s">
         <v>1150</v>
@@ -21646,7 +21646,7 @@
         <v>537</v>
       </c>
       <c r="B551" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C551" t="s">
         <v>803</v>
@@ -21675,10 +21675,10 @@
         <v>534</v>
       </c>
       <c r="B552" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C552" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D552" t="s">
         <v>807</v>
@@ -21704,13 +21704,13 @@
         <v>539</v>
       </c>
       <c r="B553" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C553" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D553" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E553" t="s">
         <v>789</v>
@@ -21733,7 +21733,7 @@
         <v>530</v>
       </c>
       <c r="B554" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C554" t="s">
         <v>1119</v>
@@ -21762,10 +21762,10 @@
         <v>535</v>
       </c>
       <c r="B555" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C555" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D555" t="s">
         <v>722</v>
@@ -21791,10 +21791,10 @@
         <v>529</v>
       </c>
       <c r="B556" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C556" t="s">
         <v>1516</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1517</v>
       </c>
       <c r="D556" t="s">
         <v>720</v>
@@ -21820,10 +21820,10 @@
         <v>536</v>
       </c>
       <c r="B557" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C557" t="s">
         <v>1518</v>
-      </c>
-      <c r="C557" t="s">
-        <v>1519</v>
       </c>
       <c r="D557" t="s">
         <v>814</v>
@@ -21849,10 +21849,10 @@
         <v>726</v>
       </c>
       <c r="B558" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C558" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D558" t="s">
         <v>826</v>
@@ -21878,10 +21878,10 @@
         <v>544</v>
       </c>
       <c r="B559" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C559" t="s">
         <v>1521</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1522</v>
       </c>
       <c r="D559" t="s">
         <v>836</v>
@@ -21907,10 +21907,10 @@
         <v>543</v>
       </c>
       <c r="B560" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C560" t="s">
         <v>1523</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1524</v>
       </c>
       <c r="D560" t="s">
         <v>804</v>
@@ -21936,7 +21936,7 @@
         <v>475</v>
       </c>
       <c r="B561" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C561" t="s">
         <v>843</v>
@@ -21965,13 +21965,13 @@
         <v>538</v>
       </c>
       <c r="B562" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C562" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D562" t="s">
         <v>1254</v>
-      </c>
-      <c r="D562" t="s">
-        <v>1255</v>
       </c>
       <c r="E562" t="s">
         <v>789</v>
@@ -21994,10 +21994,10 @@
         <v>550</v>
       </c>
       <c r="B563" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C563" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D563" t="s">
         <v>818</v>
@@ -22023,7 +22023,7 @@
         <v>541</v>
       </c>
       <c r="B564" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C564" t="s">
         <v>342</v>
@@ -22052,13 +22052,13 @@
         <v>540</v>
       </c>
       <c r="B565" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C565" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D565" t="s">
         <v>1506</v>
-      </c>
-      <c r="D565" t="s">
-        <v>1507</v>
       </c>
       <c r="E565" t="s">
         <v>789</v>
@@ -22081,13 +22081,13 @@
         <v>572</v>
       </c>
       <c r="B566" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C566" t="s">
         <v>1530</v>
       </c>
-      <c r="C566" t="s">
-        <v>1531</v>
-      </c>
       <c r="D566" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E566" t="s">
         <v>789</v>
@@ -22110,10 +22110,10 @@
         <v>587</v>
       </c>
       <c r="B567" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C567" t="s">
         <v>1532</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1533</v>
       </c>
       <c r="D567" t="s">
         <v>772</v>
@@ -22139,10 +22139,10 @@
         <v>580</v>
       </c>
       <c r="B568" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C568" t="s">
         <v>1534</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1535</v>
       </c>
       <c r="D568" t="s">
         <v>799</v>
@@ -22168,10 +22168,10 @@
         <v>556</v>
       </c>
       <c r="B569" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C569" t="s">
         <v>1536</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1537</v>
       </c>
       <c r="D569" t="s">
         <v>799</v>
@@ -22197,7 +22197,7 @@
         <v>563</v>
       </c>
       <c r="B570" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C570" t="s">
         <v>1037</v>
@@ -22226,10 +22226,10 @@
         <v>575</v>
       </c>
       <c r="B571" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C571" t="s">
         <v>1539</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1540</v>
       </c>
       <c r="D571" t="s">
         <v>942</v>
@@ -22255,10 +22255,10 @@
         <v>573</v>
       </c>
       <c r="B572" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C572" t="s">
         <v>1541</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1542</v>
       </c>
       <c r="D572" t="s">
         <v>308</v>
@@ -22284,10 +22284,10 @@
         <v>547</v>
       </c>
       <c r="B573" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C573" t="s">
         <v>1543</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1544</v>
       </c>
       <c r="D573" t="s">
         <v>308</v>
@@ -22313,10 +22313,10 @@
         <v>574</v>
       </c>
       <c r="B574" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C574" t="s">
         <v>1545</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1546</v>
       </c>
       <c r="D574" t="s">
         <v>814</v>
@@ -22342,10 +22342,10 @@
         <v>569</v>
       </c>
       <c r="B575" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="C575" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D575" t="s">
         <v>776</v>
@@ -22371,10 +22371,10 @@
         <v>586</v>
       </c>
       <c r="B576" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C576" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D576" t="s">
         <v>826</v>
@@ -22400,7 +22400,7 @@
         <v>552</v>
       </c>
       <c r="B577" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C577" t="s">
         <v>1016</v>
@@ -22429,10 +22429,10 @@
         <v>565</v>
       </c>
       <c r="B578" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C578" t="s">
         <v>1550</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1551</v>
       </c>
       <c r="D578" t="s">
         <v>780</v>
@@ -22458,10 +22458,10 @@
         <v>567</v>
       </c>
       <c r="B579" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C579" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="D579" t="s">
         <v>351</v>
@@ -22487,7 +22487,7 @@
         <v>561</v>
       </c>
       <c r="B580" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C580" t="s">
         <v>778</v>
@@ -22516,10 +22516,10 @@
         <v>548</v>
       </c>
       <c r="B581" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C581" t="s">
         <v>1554</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1555</v>
       </c>
       <c r="D581" t="s">
         <v>799</v>
@@ -22545,10 +22545,10 @@
         <v>727</v>
       </c>
       <c r="B582" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C582" t="s">
         <v>1556</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1557</v>
       </c>
       <c r="D582" t="s">
         <v>880</v>
@@ -22574,7 +22574,7 @@
         <v>532</v>
       </c>
       <c r="B583" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C583" t="s">
         <v>843</v>
@@ -22603,7 +22603,7 @@
         <v>562</v>
       </c>
       <c r="B584" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C584" t="s">
         <v>736</v>
@@ -22632,10 +22632,10 @@
         <v>557</v>
       </c>
       <c r="B585" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C585" t="s">
         <v>1560</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1561</v>
       </c>
       <c r="D585" t="s">
         <v>814</v>
@@ -22661,7 +22661,7 @@
         <v>566</v>
       </c>
       <c r="B586" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C586" t="s">
         <v>859</v>
@@ -22690,10 +22690,10 @@
         <v>553</v>
       </c>
       <c r="B587" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C587" t="s">
         <v>1563</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1564</v>
       </c>
       <c r="D587" t="s">
         <v>860</v>
@@ -22719,10 +22719,10 @@
         <v>583</v>
       </c>
       <c r="B588" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C588" t="s">
         <v>1565</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1566</v>
       </c>
       <c r="D588" t="s">
         <v>865</v>
@@ -22748,7 +22748,7 @@
         <v>545</v>
       </c>
       <c r="B589" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="C589" t="s">
         <v>342</v>
@@ -22777,13 +22777,13 @@
         <v>549</v>
       </c>
       <c r="B590" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C590" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D590" t="s">
         <v>1506</v>
-      </c>
-      <c r="D590" t="s">
-        <v>1507</v>
       </c>
       <c r="E590" t="s">
         <v>789</v>
@@ -22806,13 +22806,13 @@
         <v>577</v>
       </c>
       <c r="B591" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="C591" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D591" t="s">
         <v>1219</v>
-      </c>
-      <c r="D591" t="s">
-        <v>1220</v>
       </c>
       <c r="E591" t="s">
         <v>789</v>
@@ -22835,7 +22835,7 @@
         <v>588</v>
       </c>
       <c r="B592" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="C592" t="s">
         <v>825</v>
@@ -22864,10 +22864,10 @@
         <v>590</v>
       </c>
       <c r="B593" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C593" t="s">
         <v>1571</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1572</v>
       </c>
       <c r="D593" t="s">
         <v>780</v>
@@ -22893,7 +22893,7 @@
         <v>578</v>
       </c>
       <c r="B594" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C594" t="s">
         <v>852</v>
@@ -22922,10 +22922,10 @@
         <v>570</v>
       </c>
       <c r="B595" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C595" t="s">
         <v>1574</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1575</v>
       </c>
       <c r="D595" t="s">
         <v>13</v>
@@ -22951,13 +22951,13 @@
         <v>564</v>
       </c>
       <c r="B596" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C596" t="s">
         <v>1576</v>
       </c>
-      <c r="C596" t="s">
+      <c r="D596" t="s">
         <v>1577</v>
-      </c>
-      <c r="D596" t="s">
-        <v>1578</v>
       </c>
       <c r="E596" t="s">
         <v>789</v>
@@ -22980,13 +22980,13 @@
         <v>581</v>
       </c>
       <c r="B597" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C597" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D597" t="s">
         <v>1219</v>
-      </c>
-      <c r="D597" t="s">
-        <v>1220</v>
       </c>
       <c r="E597" t="s">
         <v>789</v>
@@ -23009,10 +23009,10 @@
         <v>584</v>
       </c>
       <c r="B598" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C598" t="s">
         <v>1580</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1581</v>
       </c>
       <c r="D598" t="s">
         <v>826</v>
@@ -23038,10 +23038,10 @@
         <v>582</v>
       </c>
       <c r="B599" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C599" t="s">
         <v>1582</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1583</v>
       </c>
       <c r="D599" t="s">
         <v>826</v>
@@ -23067,7 +23067,7 @@
         <v>551</v>
       </c>
       <c r="B600" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C600" t="s">
         <v>964</v>
@@ -23096,10 +23096,10 @@
         <v>591</v>
       </c>
       <c r="B601" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C601" t="s">
         <v>1585</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1586</v>
       </c>
       <c r="D601" t="s">
         <v>797</v>
@@ -23125,10 +23125,10 @@
         <v>571</v>
       </c>
       <c r="B602" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C602" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D602" t="s">
         <v>799</v>
@@ -23154,10 +23154,10 @@
         <v>546</v>
       </c>
       <c r="B603" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C603" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D603" t="s">
         <v>876</v>
@@ -23183,7 +23183,7 @@
         <v>579</v>
       </c>
       <c r="B604" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C604" t="s">
         <v>803</v>
@@ -23212,10 +23212,10 @@
         <v>555</v>
       </c>
       <c r="B605" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C605" t="s">
         <v>1590</v>
-      </c>
-      <c r="C605" t="s">
-        <v>1591</v>
       </c>
       <c r="D605" t="s">
         <v>910</v>
@@ -23241,10 +23241,10 @@
         <v>585</v>
       </c>
       <c r="B606" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C606" t="s">
         <v>1592</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1593</v>
       </c>
       <c r="D606" t="s">
         <v>942</v>
@@ -23270,10 +23270,10 @@
         <v>589</v>
       </c>
       <c r="B607" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C607" t="s">
         <v>1594</v>
-      </c>
-      <c r="C607" t="s">
-        <v>1595</v>
       </c>
       <c r="D607" t="s">
         <v>942</v>
@@ -23299,10 +23299,10 @@
         <v>568</v>
       </c>
       <c r="B608" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C608" t="s">
         <v>1596</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1597</v>
       </c>
       <c r="D608" t="s">
         <v>780</v>
@@ -23328,7 +23328,7 @@
         <v>558</v>
       </c>
       <c r="B609" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C609" t="s">
         <v>764</v>
@@ -23360,10 +23360,10 @@
         <v>747</v>
       </c>
       <c r="C610" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D610" t="s">
         <v>1599</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1600</v>
       </c>
       <c r="E610" t="s">
         <v>789</v>
@@ -23386,10 +23386,10 @@
         <v>728</v>
       </c>
       <c r="B611" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C611" t="s">
         <v>1601</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1602</v>
       </c>
       <c r="D611" t="s">
         <v>791</v>
@@ -23415,10 +23415,10 @@
         <v>554</v>
       </c>
       <c r="B612" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C612" t="s">
         <v>1603</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1604</v>
       </c>
       <c r="D612" t="s">
         <v>797</v>
@@ -23444,10 +23444,10 @@
         <v>738</v>
       </c>
       <c r="B613" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C613" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D613" t="s">
         <v>722</v>
@@ -23473,10 +23473,10 @@
         <v>560</v>
       </c>
       <c r="B614" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C614" t="s">
         <v>1605</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1606</v>
       </c>
       <c r="D614" t="s">
         <v>780</v>
@@ -23502,10 +23502,10 @@
         <v>576</v>
       </c>
       <c r="B615" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C615" t="s">
         <v>1607</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1608</v>
       </c>
       <c r="D615" t="s">
         <v>780</v>
@@ -23531,10 +23531,10 @@
         <v>599</v>
       </c>
       <c r="B616" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C616" t="s">
         <v>1609</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1610</v>
       </c>
       <c r="D616" t="s">
         <v>724</v>
@@ -23589,13 +23589,13 @@
         <v>729</v>
       </c>
       <c r="B618" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C618" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D618" t="s">
         <v>1337</v>
-      </c>
-      <c r="D618" t="s">
-        <v>1338</v>
       </c>
       <c r="E618" t="s">
         <v>789</v>
@@ -23618,7 +23618,7 @@
         <v>598</v>
       </c>
       <c r="B619" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C619" t="s">
         <v>784</v>
@@ -23647,10 +23647,10 @@
         <v>595</v>
       </c>
       <c r="B620" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C620" t="s">
         <v>1613</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1614</v>
       </c>
       <c r="D620" t="s">
         <v>1029</v>
@@ -23676,10 +23676,10 @@
         <v>748</v>
       </c>
       <c r="B621" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C621" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D621" t="s">
         <v>818</v>
@@ -23705,10 +23705,10 @@
         <v>609</v>
       </c>
       <c r="B622" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C622" t="s">
         <v>1616</v>
-      </c>
-      <c r="C622" t="s">
-        <v>1617</v>
       </c>
       <c r="D622" t="s">
         <v>865</v>
@@ -23734,10 +23734,10 @@
         <v>610</v>
       </c>
       <c r="B623" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C623" t="s">
         <v>1618</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1619</v>
       </c>
       <c r="D623" t="s">
         <v>768</v>
@@ -23763,10 +23763,10 @@
         <v>601</v>
       </c>
       <c r="B624" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C624" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D624" t="s">
         <v>799</v>
@@ -23792,10 +23792,10 @@
         <v>746</v>
       </c>
       <c r="B625" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C625" t="s">
         <v>1621</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1622</v>
       </c>
       <c r="D625" t="s">
         <v>804</v>
@@ -23821,10 +23821,10 @@
         <v>593</v>
       </c>
       <c r="B626" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C626" t="s">
         <v>1623</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1624</v>
       </c>
       <c r="D626" t="s">
         <v>724</v>
@@ -23850,10 +23850,10 @@
         <v>596</v>
       </c>
       <c r="B627" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C627" t="s">
         <v>1625</v>
-      </c>
-      <c r="C627" t="s">
-        <v>1626</v>
       </c>
       <c r="D627" t="s">
         <v>780</v>
@@ -23879,10 +23879,10 @@
         <v>602</v>
       </c>
       <c r="B628" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C628" t="s">
         <v>1627</v>
-      </c>
-      <c r="C628" t="s">
-        <v>1628</v>
       </c>
       <c r="D628" t="s">
         <v>850</v>
@@ -23908,10 +23908,10 @@
         <v>592</v>
       </c>
       <c r="B629" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C629" t="s">
         <v>1629</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1630</v>
       </c>
       <c r="D629" t="s">
         <v>351</v>
@@ -23937,7 +23937,7 @@
         <v>753</v>
       </c>
       <c r="B630" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C630" t="s">
         <v>978</v>
@@ -23966,7 +23966,7 @@
         <v>606</v>
       </c>
       <c r="B631" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C631" t="s">
         <v>1113</v>
@@ -23995,7 +23995,7 @@
         <v>607</v>
       </c>
       <c r="B632" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C632" t="s">
         <v>849</v>
@@ -24027,7 +24027,7 @@
         <v>1197</v>
       </c>
       <c r="C633" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D633" t="s">
         <v>1199</v>
@@ -24082,10 +24082,10 @@
         <v>740</v>
       </c>
       <c r="B635" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C635" t="s">
         <v>1635</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1636</v>
       </c>
       <c r="D635" t="s">
         <v>826</v>
@@ -24111,7 +24111,7 @@
         <v>605</v>
       </c>
       <c r="B636" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C636" t="s">
         <v>831</v>
@@ -24140,13 +24140,13 @@
         <v>603</v>
       </c>
       <c r="B637" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C637" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D637" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E637" t="s">
         <v>789</v>
@@ -24169,7 +24169,7 @@
         <v>612</v>
       </c>
       <c r="B638" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C638" t="s">
         <v>1065</v>
@@ -24198,10 +24198,10 @@
         <v>597</v>
       </c>
       <c r="B639" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C639" t="s">
         <v>1640</v>
-      </c>
-      <c r="C639" t="s">
-        <v>1641</v>
       </c>
       <c r="D639" t="s">
         <v>722</v>
@@ -24227,10 +24227,10 @@
         <v>613</v>
       </c>
       <c r="B640" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C640" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D640" t="s">
         <v>780</v>
@@ -24256,10 +24256,10 @@
         <v>623</v>
       </c>
       <c r="B641" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C641" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D641" t="s">
         <v>1018</v>
@@ -24285,10 +24285,10 @@
         <v>600</v>
       </c>
       <c r="B642" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C642" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D642" t="s">
         <v>720</v>
@@ -24314,10 +24314,10 @@
         <v>624</v>
       </c>
       <c r="B643" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C643" t="s">
         <v>1645</v>
-      </c>
-      <c r="C643" t="s">
-        <v>1646</v>
       </c>
       <c r="D643" t="s">
         <v>769</v>
@@ -24343,10 +24343,10 @@
         <v>611</v>
       </c>
       <c r="B644" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C644" t="s">
         <v>1647</v>
-      </c>
-      <c r="C644" t="s">
-        <v>1648</v>
       </c>
       <c r="D644" t="s">
         <v>854</v>
@@ -24372,10 +24372,10 @@
         <v>614</v>
       </c>
       <c r="B645" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C645" t="s">
         <v>1649</v>
-      </c>
-      <c r="C645" t="s">
-        <v>1650</v>
       </c>
       <c r="D645" t="s">
         <v>854</v>
@@ -24401,7 +24401,7 @@
         <v>627</v>
       </c>
       <c r="B646" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C646" t="s">
         <v>822</v>
@@ -24430,10 +24430,10 @@
         <v>619</v>
       </c>
       <c r="B647" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C647" t="s">
         <v>1652</v>
-      </c>
-      <c r="C647" t="s">
-        <v>1653</v>
       </c>
       <c r="D647" t="s">
         <v>772</v>
@@ -24459,7 +24459,7 @@
         <v>639</v>
       </c>
       <c r="B648" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C648" t="s">
         <v>825</v>
@@ -24488,7 +24488,7 @@
         <v>618</v>
       </c>
       <c r="B649" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C649" t="s">
         <v>1143</v>
@@ -24517,10 +24517,10 @@
         <v>617</v>
       </c>
       <c r="B650" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C650" t="s">
         <v>1656</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1657</v>
       </c>
       <c r="D650" t="s">
         <v>797</v>
@@ -24546,7 +24546,7 @@
         <v>730</v>
       </c>
       <c r="B651" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C651" t="s">
         <v>904</v>
@@ -24575,7 +24575,7 @@
         <v>636</v>
       </c>
       <c r="B652" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C652" t="s">
         <v>831</v>
@@ -24604,10 +24604,10 @@
         <v>620</v>
       </c>
       <c r="B653" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C653" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D653" t="s">
         <v>807</v>
@@ -24633,13 +24633,13 @@
         <v>745</v>
       </c>
       <c r="B654" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C654" t="s">
         <v>1661</v>
       </c>
-      <c r="C654" t="s">
-        <v>1662</v>
-      </c>
       <c r="D654" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E654" t="s">
         <v>789</v>
@@ -24662,10 +24662,10 @@
         <v>632</v>
       </c>
       <c r="B655" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C655" t="s">
         <v>1663</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1664</v>
       </c>
       <c r="D655" t="s">
         <v>910</v>
@@ -24691,10 +24691,10 @@
         <v>741</v>
       </c>
       <c r="B656" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C656" t="s">
         <v>1665</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1666</v>
       </c>
       <c r="D656" t="s">
         <v>780</v>
@@ -24720,10 +24720,10 @@
         <v>616</v>
       </c>
       <c r="B657" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C657" t="s">
         <v>1667</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1668</v>
       </c>
       <c r="D657" t="s">
         <v>850</v>
@@ -24749,7 +24749,7 @@
         <v>622</v>
       </c>
       <c r="B658" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C658" t="s">
         <v>852</v>
@@ -24778,13 +24778,13 @@
         <v>751</v>
       </c>
       <c r="B659" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C659" t="s">
         <v>1670</v>
       </c>
-      <c r="C659" t="s">
-        <v>1671</v>
-      </c>
       <c r="D659" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E659" t="s">
         <v>789</v>
@@ -24807,10 +24807,10 @@
         <v>626</v>
       </c>
       <c r="B660" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C660" t="s">
         <v>1672</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1673</v>
       </c>
       <c r="D660" t="s">
         <v>816</v>
@@ -24836,10 +24836,10 @@
         <v>640</v>
       </c>
       <c r="B661" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C661" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D661" t="s">
         <v>816</v>
@@ -24894,10 +24894,10 @@
         <v>621</v>
       </c>
       <c r="B663" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C663" t="s">
         <v>1675</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1676</v>
       </c>
       <c r="D663" t="s">
         <v>1083</v>
@@ -24952,10 +24952,10 @@
         <v>631</v>
       </c>
       <c r="B665" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C665" t="s">
         <v>1677</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1678</v>
       </c>
       <c r="D665" t="s">
         <v>818</v>
@@ -24981,10 +24981,10 @@
         <v>630</v>
       </c>
       <c r="B666" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C666" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D666" t="s">
         <v>818</v>
@@ -25010,10 +25010,10 @@
         <v>615</v>
       </c>
       <c r="B667" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C667" t="s">
         <v>1679</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1680</v>
       </c>
       <c r="D667" t="s">
         <v>865</v>
@@ -25039,10 +25039,10 @@
         <v>625</v>
       </c>
       <c r="B668" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C668" t="s">
         <v>1681</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1682</v>
       </c>
       <c r="D668" t="s">
         <v>719</v>
@@ -25068,10 +25068,10 @@
         <v>731</v>
       </c>
       <c r="B669" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C669" t="s">
         <v>1683</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1684</v>
       </c>
       <c r="D669" t="s">
         <v>719</v>
@@ -25097,7 +25097,7 @@
         <v>628</v>
       </c>
       <c r="B670" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C670" t="s">
         <v>342</v>
@@ -25126,10 +25126,10 @@
         <v>643</v>
       </c>
       <c r="B671" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C671" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D671" t="s">
         <v>791</v>
@@ -25184,10 +25184,10 @@
         <v>642</v>
       </c>
       <c r="B673" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C673" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D673" t="s">
         <v>816</v>
@@ -25213,10 +25213,10 @@
         <v>637</v>
       </c>
       <c r="B674" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C674" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D674" t="s">
         <v>768</v>
@@ -25242,13 +25242,13 @@
         <v>638</v>
       </c>
       <c r="B675" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C675" t="s">
         <v>1689</v>
       </c>
-      <c r="C675" t="s">
-        <v>1690</v>
-      </c>
       <c r="D675" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E675" t="s">
         <v>789</v>
@@ -25271,13 +25271,13 @@
         <v>646</v>
       </c>
       <c r="B676" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C676" t="s">
         <v>1691</v>
       </c>
-      <c r="C676" t="s">
-        <v>1692</v>
-      </c>
       <c r="D676" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E676" t="s">
         <v>789</v>
@@ -25300,7 +25300,7 @@
         <v>755</v>
       </c>
       <c r="B677" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C677" t="s">
         <v>974</v>
@@ -25329,7 +25329,7 @@
         <v>649</v>
       </c>
       <c r="B678" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C678" t="s">
         <v>1065</v>
@@ -25358,10 +25358,10 @@
         <v>635</v>
       </c>
       <c r="B679" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C679" t="s">
         <v>1695</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1696</v>
       </c>
       <c r="D679" t="s">
         <v>13</v>
@@ -25387,13 +25387,13 @@
         <v>633</v>
       </c>
       <c r="B680" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C680" t="s">
         <v>1697</v>
       </c>
-      <c r="C680" t="s">
-        <v>1698</v>
-      </c>
       <c r="D680" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E680" t="s">
         <v>789</v>
@@ -25416,10 +25416,10 @@
         <v>754</v>
       </c>
       <c r="B681" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C681" t="s">
         <v>1699</v>
-      </c>
-      <c r="C681" t="s">
-        <v>1700</v>
       </c>
       <c r="D681" t="s">
         <v>1083</v>
@@ -25445,7 +25445,7 @@
         <v>742</v>
       </c>
       <c r="B682" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C682" t="s">
         <v>955</v>
@@ -25474,7 +25474,7 @@
         <v>648</v>
       </c>
       <c r="B683" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C683" t="s">
         <v>1002</v>
@@ -25503,13 +25503,13 @@
         <v>641</v>
       </c>
       <c r="B684" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C684" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D684" t="s">
         <v>1506</v>
-      </c>
-      <c r="D684" t="s">
-        <v>1507</v>
       </c>
       <c r="E684" t="s">
         <v>789</v>
@@ -25532,10 +25532,10 @@
         <v>651</v>
       </c>
       <c r="B685" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C685" t="s">
         <v>1704</v>
-      </c>
-      <c r="C685" t="s">
-        <v>1705</v>
       </c>
       <c r="D685" t="s">
         <v>772</v>
@@ -25561,10 +25561,10 @@
         <v>657</v>
       </c>
       <c r="B686" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C686" t="s">
         <v>1706</v>
-      </c>
-      <c r="C686" t="s">
-        <v>1707</v>
       </c>
       <c r="D686" t="s">
         <v>772</v>
@@ -25590,13 +25590,13 @@
         <v>732</v>
       </c>
       <c r="B687" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C687" t="s">
         <v>1708</v>
       </c>
-      <c r="C687" t="s">
-        <v>1709</v>
-      </c>
       <c r="D687" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E687" t="s">
         <v>789</v>
@@ -25619,10 +25619,10 @@
         <v>645</v>
       </c>
       <c r="B688" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C688" t="s">
         <v>1710</v>
-      </c>
-      <c r="C688" t="s">
-        <v>1711</v>
       </c>
       <c r="D688" t="s">
         <v>967</v>
@@ -25648,10 +25648,10 @@
         <v>659</v>
       </c>
       <c r="B689" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C689" t="s">
         <v>1712</v>
-      </c>
-      <c r="C689" t="s">
-        <v>1713</v>
       </c>
       <c r="D689" t="s">
         <v>804</v>
@@ -25677,10 +25677,10 @@
         <v>650</v>
       </c>
       <c r="B690" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C690" t="s">
         <v>1714</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1715</v>
       </c>
       <c r="D690" t="s">
         <v>770</v>
@@ -25706,10 +25706,10 @@
         <v>661</v>
       </c>
       <c r="B691" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C691" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D691" t="s">
         <v>780</v>
@@ -25735,10 +25735,10 @@
         <v>652</v>
       </c>
       <c r="B692" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C692" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D692" t="s">
         <v>816</v>
@@ -25764,10 +25764,10 @@
         <v>647</v>
       </c>
       <c r="B693" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C693" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D693" t="s">
         <v>818</v>
@@ -25793,13 +25793,13 @@
         <v>644</v>
       </c>
       <c r="B694" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C694" t="s">
         <v>1718</v>
       </c>
-      <c r="C694" t="s">
-        <v>1719</v>
-      </c>
       <c r="D694" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E694" t="s">
         <v>789</v>
@@ -25822,10 +25822,10 @@
         <v>653</v>
       </c>
       <c r="B695" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C695" t="s">
         <v>1720</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1721</v>
       </c>
       <c r="D695" t="s">
         <v>838</v>
@@ -25851,10 +25851,10 @@
         <v>656</v>
       </c>
       <c r="B696" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C696" t="s">
         <v>1722</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1723</v>
       </c>
       <c r="D696" t="s">
         <v>891</v>
@@ -25880,10 +25880,10 @@
         <v>662</v>
       </c>
       <c r="B697" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C697" t="s">
         <v>1724</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1725</v>
       </c>
       <c r="D697" t="s">
         <v>351</v>
@@ -25909,7 +25909,7 @@
         <v>743</v>
       </c>
       <c r="B698" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C698" t="s">
         <v>800</v>
@@ -25938,10 +25938,10 @@
         <v>654</v>
       </c>
       <c r="B699" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C699" t="s">
         <v>1727</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1728</v>
       </c>
       <c r="D699" t="s">
         <v>836</v>
@@ -25967,10 +25967,10 @@
         <v>663</v>
       </c>
       <c r="B700" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C700" t="s">
         <v>1729</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1730</v>
       </c>
       <c r="D700" t="s">
         <v>1051</v>
@@ -25996,10 +25996,10 @@
         <v>660</v>
       </c>
       <c r="B701" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C701" t="s">
         <v>1731</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1732</v>
       </c>
       <c r="D701" t="s">
         <v>816</v>
@@ -26025,10 +26025,10 @@
         <v>658</v>
       </c>
       <c r="B702" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C702" t="s">
         <v>1733</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1734</v>
       </c>
       <c r="D702" t="s">
         <v>1029</v>
@@ -26054,10 +26054,10 @@
         <v>655</v>
       </c>
       <c r="B703" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C703" t="s">
         <v>1735</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1736</v>
       </c>
       <c r="D703" t="s">
         <v>719</v>
@@ -26083,10 +26083,10 @@
         <v>670</v>
       </c>
       <c r="B704" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C704" t="s">
         <v>1737</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1738</v>
       </c>
       <c r="D704" t="s">
         <v>823</v>
@@ -26141,7 +26141,7 @@
         <v>733</v>
       </c>
       <c r="B706" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C706" t="s">
         <v>1113</v>
@@ -26170,7 +26170,7 @@
         <v>734</v>
       </c>
       <c r="B707" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C707" t="s">
         <v>1178</v>
@@ -26199,10 +26199,10 @@
         <v>750</v>
       </c>
       <c r="B708" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C708" t="s">
         <v>1741</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1742</v>
       </c>
       <c r="D708" t="s">
         <v>995</v>
@@ -26228,10 +26228,10 @@
         <v>669</v>
       </c>
       <c r="B709" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C709" t="s">
         <v>1743</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1744</v>
       </c>
       <c r="D709" t="s">
         <v>995</v>
@@ -26257,13 +26257,13 @@
         <v>668</v>
       </c>
       <c r="B710" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C710" t="s">
         <v>1745</v>
       </c>
-      <c r="C710" t="s">
-        <v>1746</v>
-      </c>
       <c r="D710" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E710" t="s">
         <v>789</v>
@@ -26286,10 +26286,10 @@
         <v>737</v>
       </c>
       <c r="B711" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C711" t="s">
         <v>1747</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1748</v>
       </c>
       <c r="D711" t="s">
         <v>1029</v>
@@ -26315,10 +26315,10 @@
         <v>666</v>
       </c>
       <c r="B712" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C712" t="s">
         <v>1749</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1750</v>
       </c>
       <c r="D712" t="s">
         <v>1029</v>
@@ -26344,7 +26344,7 @@
         <v>735</v>
       </c>
       <c r="B713" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C713" t="s">
         <v>765</v>
@@ -26373,10 +26373,10 @@
         <v>667</v>
       </c>
       <c r="B714" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C714" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D714" t="s">
         <v>780</v>
@@ -26402,13 +26402,13 @@
         <v>671</v>
       </c>
       <c r="B715" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C715" t="s">
         <v>1753</v>
       </c>
-      <c r="C715" t="s">
-        <v>1754</v>
-      </c>
       <c r="D715" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E715" t="s">
         <v>789</v>
@@ -26431,10 +26431,10 @@
         <v>673</v>
       </c>
       <c r="B716" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C716" t="s">
         <v>1755</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1756</v>
       </c>
       <c r="D716" t="s">
         <v>816</v>
@@ -26460,7 +26460,7 @@
         <v>672</v>
       </c>
       <c r="B717" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C717" t="s">
         <v>955</v>
@@ -26489,10 +26489,10 @@
         <v>664</v>
       </c>
       <c r="B718" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C718" t="s">
         <v>1758</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1759</v>
       </c>
       <c r="D718" t="s">
         <v>351</v>
